--- a/data/trans_orig/P43A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECD814E-DFD5-4BB1-B339-1E972DBC3429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B0D814-B6BD-46E9-9132-5C1063D18BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B158522-DB51-4456-BCA4-1143EBA4C548}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03C7DBD5-6A39-437C-B45F-01AB194CBABA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="302">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,886 +80,871 @@
     <t>23,53%</t>
   </si>
   <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>30,94%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>30,77%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBDECA0-0DAD-4859-891D-C8F0C26B6EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5C8BB-2AAD-4B37-8E52-10843B3C49BF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,7 +1737,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>36701</v>
+        <v>36700</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -1767,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>36701</v>
+        <v>36700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -1899,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1914,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1948,7 +1933,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>187429</v>
+        <v>187428</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -1963,7 +1948,7 @@
         <v>188</v>
       </c>
       <c r="N13" s="7">
-        <v>187429</v>
+        <v>187428</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -2986,7 +2971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247879E5-F3B9-4199-81DF-390B5D1D19A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008C790-C01F-44AD-986F-938389C5E764}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3373,10 +3358,10 @@
         <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3388,10 +3373,10 @@
         <v>106</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3404,13 @@
         <v>87299</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3434,13 +3419,13 @@
         <v>87299</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3453,13 @@
         <v>73739</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -3483,13 +3468,13 @@
         <v>73739</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3502,13 @@
         <v>42308</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -3532,13 +3517,13 @@
         <v>42308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3602,13 @@
         <v>74033</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3632,13 +3617,13 @@
         <v>74033</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3651,13 @@
         <v>195465</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M15" s="7">
         <v>177</v>
@@ -3681,13 +3666,13 @@
         <v>195465</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3700,13 @@
         <v>124150</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3730,13 +3715,13 @@
         <v>124150</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3749,13 @@
         <v>69217</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3779,13 +3764,13 @@
         <v>69217</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3849,13 @@
         <v>66476</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -3879,13 +3864,13 @@
         <v>66476</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3898,13 @@
         <v>146428</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -3928,13 +3913,13 @@
         <v>146428</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3947,13 @@
         <v>98105</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -3977,13 +3962,13 @@
         <v>98105</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3996,13 @@
         <v>58656</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -4026,13 +4011,13 @@
         <v>58656</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4096,13 @@
         <v>129844</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -4126,13 +4111,13 @@
         <v>129844</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4145,13 @@
         <v>184785</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>176</v>
@@ -4175,13 +4160,13 @@
         <v>184785</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4194,13 @@
         <v>124933</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -4224,13 +4209,13 @@
         <v>124933</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4243,13 @@
         <v>63790</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4273,13 +4258,13 @@
         <v>63790</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4343,13 @@
         <v>342072</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -4373,13 +4358,13 @@
         <v>342072</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4392,13 @@
         <v>637154</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>583</v>
@@ -4422,13 +4407,13 @@
         <v>637154</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4441,13 @@
         <v>443451</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>408</v>
@@ -4471,13 +4456,13 @@
         <v>443451</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4490,13 @@
         <v>241443</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M32" s="7">
         <v>217</v>
@@ -4520,13 +4505,13 @@
         <v>241443</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C579AEFE-4276-4694-8ABE-8EB29891908E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ACD653-7748-4FAB-BF85-97FFC152F8B9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4618,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4738,13 +4723,13 @@
         <v>11566</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4753,13 +4738,13 @@
         <v>11566</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4772,13 @@
         <v>17141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4802,13 +4787,13 @@
         <v>17141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4821,13 @@
         <v>13889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4851,13 +4836,13 @@
         <v>13889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4870,13 @@
         <v>14782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4900,13 +4885,13 @@
         <v>14782</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4970,13 @@
         <v>89363</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -5000,13 +4985,13 @@
         <v>89363</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5019,13 @@
         <v>104140</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5049,13 +5034,13 @@
         <v>104140</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5068,13 @@
         <v>53504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -5098,13 +5083,13 @@
         <v>53504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5117,13 @@
         <v>29830</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5147,13 +5132,13 @@
         <v>29830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5217,13 @@
         <v>118721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -5247,13 +5232,13 @@
         <v>118721</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5266,13 @@
         <v>228552</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -5296,13 +5281,13 @@
         <v>228552</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5315,13 @@
         <v>142468</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -5345,13 +5330,13 @@
         <v>142468</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5364,13 @@
         <v>53812</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -5394,13 +5379,13 @@
         <v>53812</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5464,13 @@
         <v>71024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -5494,13 +5479,13 @@
         <v>71024</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5513,13 @@
         <v>157330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>142</v>
@@ -5543,13 +5528,13 @@
         <v>157330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5562,13 @@
         <v>74603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -5592,13 +5577,13 @@
         <v>74603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5611,13 @@
         <v>39134</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5641,13 +5626,13 @@
         <v>39134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5711,13 @@
         <v>138316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>120</v>
@@ -5741,13 +5726,13 @@
         <v>138316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5760,13 @@
         <v>198865</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -5790,13 +5775,13 @@
         <v>198865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5809,13 @@
         <v>127836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5839,13 +5824,13 @@
         <v>127836</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5858,13 @@
         <v>71351</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -5888,13 +5873,13 @@
         <v>71351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5958,13 @@
         <v>428991</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>376</v>
@@ -5988,13 +5973,13 @@
         <v>428991</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6007,13 @@
         <v>706027</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>647</v>
@@ -6037,13 +6022,13 @@
         <v>706027</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6056,13 @@
         <v>412300</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>380</v>
@@ -6086,13 +6071,13 @@
         <v>412300</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6105,13 @@
         <v>208909</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>191</v>
@@ -6135,13 +6120,13 @@
         <v>208909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044290E4-8946-445B-AE5B-933CA52A641B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB177A55-9B79-4215-95F0-C6E90213B6BA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6233,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6353,13 +6338,13 @@
         <v>25202</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6368,13 +6353,13 @@
         <v>25202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6387,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6417,13 +6402,13 @@
         <v>13076</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6436,13 @@
         <v>5815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6466,13 +6451,13 @@
         <v>5815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6485,13 @@
         <v>4190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -6515,13 +6500,13 @@
         <v>4190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6585,13 @@
         <v>81063</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>177</v>
@@ -6615,13 +6600,13 @@
         <v>81063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6634,13 @@
         <v>72153</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6664,13 +6649,13 @@
         <v>72153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6683,13 @@
         <v>62917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>115</v>
@@ -6713,13 +6698,13 @@
         <v>62917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6732,13 @@
         <v>21193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -6762,13 +6747,13 @@
         <v>21193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6832,13 @@
         <v>121476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -6862,13 +6847,13 @@
         <v>121476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6881,13 @@
         <v>133011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -6911,13 +6896,13 @@
         <v>133011</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6930,13 @@
         <v>92041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -6960,13 +6945,13 @@
         <v>92041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6979,13 @@
         <v>48293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7009,13 +6994,13 @@
         <v>48293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7079,13 @@
         <v>99520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7109,13 +7094,13 @@
         <v>99520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7128,13 @@
         <v>208244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
@@ -7158,13 +7143,13 @@
         <v>208244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7177,13 @@
         <v>67094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -7207,13 +7192,13 @@
         <v>67094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7226,13 @@
         <v>35333</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -7256,13 +7241,13 @@
         <v>35333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7326,13 @@
         <v>171052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>278</v>
@@ -7356,13 +7341,13 @@
         <v>171052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7375,13 @@
         <v>136314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -7405,13 +7390,13 @@
         <v>136314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7424,13 @@
         <v>111168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -7454,13 +7439,13 @@
         <v>111168</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7473,13 @@
         <v>68828</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -7503,13 +7488,13 @@
         <v>68828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7573,13 @@
         <v>498313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>867</v>
@@ -7603,13 +7588,13 @@
         <v>498313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7622,13 @@
         <v>562797</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>765</v>
@@ -7652,13 +7637,13 @@
         <v>562797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7671,13 @@
         <v>339034</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -7701,13 +7686,13 @@
         <v>339034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7720,13 @@
         <v>177837</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>279</v>
@@ -7750,13 +7735,13 @@
         <v>177837</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B0D814-B6BD-46E9-9132-5C1063D18BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0767AF2-7136-403E-8383-3AC63FCB603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03C7DBD5-6A39-437C-B45F-01AB194CBABA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E1F639C-38C7-4DE3-A582-728C4C6C6944}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="299">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -80,10 +80,10 @@
     <t>23,53%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>33,47%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,696 +104,690 @@
     <t>23,24%</t>
   </si>
   <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
     <t>30,94%</t>
   </si>
   <si>
@@ -816,9 +810,6 @@
   </si>
   <si>
     <t>33,69%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
   </si>
   <si>
     <t>37,49%</t>
@@ -1356,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5C8BB-2AAD-4B37-8E52-10843B3C49BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E39620-2ABC-4C6B-B75C-BDBA08B51EAB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>36700</v>
+        <v>36701</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -1752,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>36700</v>
+        <v>36701</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -1884,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1899,7 +1890,7 @@
         <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1933,7 +1924,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>187428</v>
+        <v>187429</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -1948,7 +1939,7 @@
         <v>188</v>
       </c>
       <c r="N13" s="7">
-        <v>187428</v>
+        <v>187429</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -2971,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008C790-C01F-44AD-986F-938389C5E764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6249B82F-FE2E-4960-8825-2F2D836B7C93}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3453,13 +3444,13 @@
         <v>73739</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -3468,13 +3459,13 @@
         <v>73739</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3493,13 @@
         <v>42308</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -3517,13 +3508,13 @@
         <v>42308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3593,13 @@
         <v>74033</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3617,13 +3608,13 @@
         <v>74033</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3642,13 @@
         <v>195465</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M15" s="7">
         <v>177</v>
@@ -3666,13 +3657,13 @@
         <v>195465</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3691,13 @@
         <v>124150</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3715,13 +3706,13 @@
         <v>124150</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3740,13 @@
         <v>69217</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3764,13 +3755,13 @@
         <v>69217</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3840,13 @@
         <v>66476</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -3864,13 +3855,13 @@
         <v>66476</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3889,13 @@
         <v>146428</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -3913,13 +3904,13 @@
         <v>146428</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3938,13 @@
         <v>98105</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -3962,13 +3953,13 @@
         <v>98105</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3987,13 @@
         <v>58656</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -4011,13 +4002,13 @@
         <v>58656</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4087,13 @@
         <v>129844</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -4111,13 +4102,13 @@
         <v>129844</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4136,13 @@
         <v>184785</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>176</v>
@@ -4160,13 +4151,13 @@
         <v>184785</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4185,13 @@
         <v>124933</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -4209,13 +4200,13 @@
         <v>124933</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4234,13 @@
         <v>63790</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4258,13 +4249,13 @@
         <v>63790</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4334,13 @@
         <v>342072</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -4358,13 +4349,13 @@
         <v>342072</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4383,13 @@
         <v>637154</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>583</v>
@@ -4407,13 +4398,13 @@
         <v>637154</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4432,13 @@
         <v>443451</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>408</v>
@@ -4456,13 +4447,13 @@
         <v>443451</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4481,13 @@
         <v>241443</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>217</v>
@@ -4505,13 +4496,13 @@
         <v>241443</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ACD653-7748-4FAB-BF85-97FFC152F8B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB974662-D7F8-44F0-865D-4A81852B78FE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4723,13 +4714,13 @@
         <v>11566</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4738,13 +4729,13 @@
         <v>11566</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4763,13 @@
         <v>17141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4787,13 +4778,13 @@
         <v>17141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4812,13 @@
         <v>13889</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4836,13 +4827,13 @@
         <v>13889</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4861,13 @@
         <v>14782</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4885,13 +4876,13 @@
         <v>14782</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4961,13 @@
         <v>89363</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -4985,13 +4976,13 @@
         <v>89363</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5010,13 @@
         <v>104140</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5034,13 +5025,13 @@
         <v>104140</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5059,13 @@
         <v>53504</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -5083,13 +5074,13 @@
         <v>53504</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5108,13 @@
         <v>29830</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5132,13 +5123,13 @@
         <v>29830</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5208,13 @@
         <v>118721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -5232,13 +5223,13 @@
         <v>118721</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5257,13 @@
         <v>228552</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -5281,13 +5272,13 @@
         <v>228552</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5306,13 @@
         <v>142468</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -5330,13 +5321,13 @@
         <v>142468</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5355,13 @@
         <v>53812</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -5379,13 +5370,13 @@
         <v>53812</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5455,13 @@
         <v>71024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -5479,13 +5470,13 @@
         <v>71024</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5504,13 @@
         <v>157330</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>142</v>
@@ -5528,13 +5519,13 @@
         <v>157330</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5553,13 @@
         <v>74603</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -5577,13 +5568,13 @@
         <v>74603</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5602,13 @@
         <v>39134</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5626,13 +5617,13 @@
         <v>39134</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5702,13 @@
         <v>138316</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>120</v>
@@ -5726,13 +5717,13 @@
         <v>138316</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5751,13 @@
         <v>198865</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -5775,13 +5766,13 @@
         <v>198865</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5800,13 @@
         <v>127836</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5824,13 +5815,13 @@
         <v>127836</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5849,13 @@
         <v>71351</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -5873,13 +5864,13 @@
         <v>71351</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5949,13 @@
         <v>428991</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>376</v>
@@ -5973,13 +5964,13 @@
         <v>428991</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +5998,13 @@
         <v>706027</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>647</v>
@@ -6022,13 +6013,13 @@
         <v>706027</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6047,13 @@
         <v>412300</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>380</v>
@@ -6071,13 +6062,13 @@
         <v>412300</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6096,13 @@
         <v>208909</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="M32" s="7">
         <v>191</v>
@@ -6120,13 +6111,13 @@
         <v>208909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,7 +6192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB177A55-9B79-4215-95F0-C6E90213B6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A318A2E7-C761-4447-8571-032E327BA811}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,7 +6209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6338,13 +6329,13 @@
         <v>25202</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6353,13 +6344,13 @@
         <v>25202</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6378,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6402,13 +6393,13 @@
         <v>13076</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6427,13 @@
         <v>5815</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6451,13 +6442,13 @@
         <v>5815</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6476,13 @@
         <v>4190</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -6500,13 +6491,13 @@
         <v>4190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6576,13 @@
         <v>81063</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>177</v>
@@ -6600,13 +6591,13 @@
         <v>81063</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6625,13 @@
         <v>72153</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6649,13 +6640,13 @@
         <v>72153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6674,13 @@
         <v>62917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>115</v>
@@ -6698,13 +6689,13 @@
         <v>62917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6723,13 @@
         <v>21193</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -6747,13 +6738,13 @@
         <v>21193</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6823,13 @@
         <v>121476</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -6847,13 +6838,13 @@
         <v>121476</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6872,13 @@
         <v>133011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -6896,13 +6887,13 @@
         <v>133011</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6921,13 @@
         <v>92041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -6945,13 +6936,13 @@
         <v>92041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6970,13 @@
         <v>48293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6994,13 +6985,13 @@
         <v>48293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7070,13 @@
         <v>99520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7094,13 +7085,13 @@
         <v>99520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7119,13 @@
         <v>208244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
@@ -7143,13 +7134,13 @@
         <v>208244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7168,13 @@
         <v>67094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -7192,13 +7183,13 @@
         <v>67094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7217,13 @@
         <v>35333</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -7241,13 +7232,13 @@
         <v>35333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7317,13 @@
         <v>171052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>278</v>
@@ -7341,13 +7332,13 @@
         <v>171052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7366,13 @@
         <v>136314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -7390,13 +7381,13 @@
         <v>136314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7415,13 @@
         <v>111168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -7439,13 +7430,13 @@
         <v>111168</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7464,13 @@
         <v>68828</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -7488,13 +7479,13 @@
         <v>68828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7564,13 @@
         <v>498313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>867</v>
@@ -7588,13 +7579,13 @@
         <v>498313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7613,13 @@
         <v>562797</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M30" s="7">
         <v>765</v>
@@ -7637,13 +7628,13 @@
         <v>562797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7662,13 @@
         <v>339034</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -7686,13 +7677,13 @@
         <v>339034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7711,13 @@
         <v>177837</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>279</v>
@@ -7735,13 +7726,13 @@
         <v>177837</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0767AF2-7136-403E-8383-3AC63FCB603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1B4380-061A-424C-A3F8-8ED7B63AA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E1F639C-38C7-4DE3-A582-728C4C6C6944}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72F0EF4C-13DB-4912-9BE0-78B4C9C9AD42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="307">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>23,53%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>33,47%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>23,24%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>19,58%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -170,772 +170,796 @@
     <t>24,07%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E39620-2ABC-4C6B-B75C-BDBA08B51EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E42047B-BFA1-4D48-A34D-A06FF111BAFA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2962,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6249B82F-FE2E-4960-8825-2F2D836B7C93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD2807-BE71-40B4-8620-43799D49970A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,10 +3373,10 @@
         <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3364,10 +3388,10 @@
         <v>106</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3419,13 @@
         <v>87299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3410,13 +3434,13 @@
         <v>87299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3468,13 @@
         <v>73739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -3459,13 +3483,13 @@
         <v>73739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3517,13 @@
         <v>42308</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -3508,13 +3532,13 @@
         <v>42308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3617,13 @@
         <v>74033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3608,13 +3632,13 @@
         <v>74033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3666,13 @@
         <v>195465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M15" s="7">
         <v>177</v>
@@ -3657,13 +3681,13 @@
         <v>195465</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3715,13 @@
         <v>124150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3706,13 +3730,13 @@
         <v>124150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3764,13 @@
         <v>69217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3755,13 +3779,13 @@
         <v>69217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3864,13 @@
         <v>66476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -3855,13 +3879,13 @@
         <v>66476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3913,13 @@
         <v>146428</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -3904,13 +3928,13 @@
         <v>146428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3962,13 @@
         <v>98105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -3953,13 +3977,13 @@
         <v>98105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4011,13 @@
         <v>58656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -4002,13 +4026,13 @@
         <v>58656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4111,13 @@
         <v>129844</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -4102,13 +4126,13 @@
         <v>129844</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4160,13 @@
         <v>184785</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>176</v>
@@ -4151,13 +4175,13 @@
         <v>184785</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4209,13 @@
         <v>124933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -4200,13 +4224,13 @@
         <v>124933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4258,13 @@
         <v>63790</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4249,13 +4273,13 @@
         <v>63790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4358,13 @@
         <v>342072</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -4349,13 +4373,13 @@
         <v>342072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4407,13 @@
         <v>637154</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>583</v>
@@ -4398,13 +4422,13 @@
         <v>637154</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4456,13 @@
         <v>443451</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>408</v>
@@ -4447,13 +4471,13 @@
         <v>443451</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4505,13 @@
         <v>241443</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M32" s="7">
         <v>217</v>
@@ -4496,13 +4520,13 @@
         <v>241443</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB974662-D7F8-44F0-865D-4A81852B78FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8CC6DB-093B-4B59-BF68-6D7A8260AAFF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4594,7 +4618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4714,13 +4738,13 @@
         <v>11566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4729,13 +4753,13 @@
         <v>11566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4787,13 @@
         <v>17141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4778,13 +4802,13 @@
         <v>17141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4836,13 @@
         <v>13889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4827,13 +4851,13 @@
         <v>13889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4885,13 @@
         <v>14782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4876,13 +4900,13 @@
         <v>14782</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4985,13 @@
         <v>89363</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -4976,13 +5000,13 @@
         <v>89363</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5034,13 @@
         <v>104140</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -5025,13 +5049,13 @@
         <v>104140</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5083,13 @@
         <v>53504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -5074,13 +5098,13 @@
         <v>53504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5132,13 @@
         <v>29830</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5123,13 +5147,13 @@
         <v>29830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5232,13 @@
         <v>118721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -5223,13 +5247,13 @@
         <v>118721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5281,13 @@
         <v>228552</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -5272,13 +5296,13 @@
         <v>228552</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5330,13 @@
         <v>142468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -5321,13 +5345,13 @@
         <v>142468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5379,13 @@
         <v>53812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -5370,13 +5394,13 @@
         <v>53812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5479,13 @@
         <v>71024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -5470,13 +5494,13 @@
         <v>71024</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5528,13 @@
         <v>157330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>142</v>
@@ -5519,13 +5543,13 @@
         <v>157330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5577,13 @@
         <v>74603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -5568,13 +5592,13 @@
         <v>74603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5626,13 @@
         <v>39134</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5617,13 +5641,13 @@
         <v>39134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5726,13 @@
         <v>138316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M24" s="7">
         <v>120</v>
@@ -5717,13 +5741,13 @@
         <v>138316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5775,13 @@
         <v>198865</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -5766,13 +5790,13 @@
         <v>198865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5824,13 @@
         <v>127836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5815,13 +5839,13 @@
         <v>127836</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5873,13 @@
         <v>71351</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -5864,13 +5888,13 @@
         <v>71351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5973,13 @@
         <v>428991</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>376</v>
@@ -5964,13 +5988,13 @@
         <v>428991</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6022,13 @@
         <v>706027</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M30" s="7">
         <v>647</v>
@@ -6013,13 +6037,13 @@
         <v>706027</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6071,13 @@
         <v>412300</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>380</v>
@@ -6062,13 +6086,13 @@
         <v>412300</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6120,13 @@
         <v>208909</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>191</v>
@@ -6111,13 +6135,13 @@
         <v>208909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,7 +6216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A318A2E7-C761-4447-8571-032E327BA811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0B16D-D13D-4967-8148-5F64EE085B04}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6209,7 +6233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6329,13 +6353,13 @@
         <v>25202</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6344,13 +6368,13 @@
         <v>25202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6402,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6393,13 +6417,13 @@
         <v>13076</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6451,13 @@
         <v>5815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6442,13 +6466,13 @@
         <v>5815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6500,13 @@
         <v>4190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -6491,13 +6515,13 @@
         <v>4190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6600,13 @@
         <v>81063</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>177</v>
@@ -6591,13 +6615,13 @@
         <v>81063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6649,13 @@
         <v>72153</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6640,13 +6664,13 @@
         <v>72153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,10 +6701,10 @@
         <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>115</v>
@@ -6692,10 +6716,10 @@
         <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6747,13 @@
         <v>21193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -6738,13 +6762,13 @@
         <v>21193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6847,13 @@
         <v>121476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -6838,13 +6862,13 @@
         <v>121476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6896,13 @@
         <v>133011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -6887,13 +6911,13 @@
         <v>133011</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6945,13 @@
         <v>92041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -6936,13 +6960,13 @@
         <v>92041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6994,13 @@
         <v>48293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6985,13 +7009,13 @@
         <v>48293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7094,13 @@
         <v>99520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7085,13 +7109,13 @@
         <v>99520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7143,13 @@
         <v>208244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
@@ -7134,13 +7158,13 @@
         <v>208244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7192,13 @@
         <v>67094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -7183,13 +7207,13 @@
         <v>67094</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7241,13 @@
         <v>35333</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -7232,13 +7256,13 @@
         <v>35333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7341,13 @@
         <v>171052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M24" s="7">
         <v>278</v>
@@ -7332,13 +7356,13 @@
         <v>171052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7390,13 @@
         <v>136314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -7381,13 +7405,13 @@
         <v>136314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7439,13 @@
         <v>111168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -7430,13 +7454,13 @@
         <v>111168</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7488,13 @@
         <v>68828</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -7479,13 +7503,13 @@
         <v>68828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7588,13 @@
         <v>498313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M29" s="7">
         <v>867</v>
@@ -7579,13 +7603,13 @@
         <v>498313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7637,13 @@
         <v>562797</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>765</v>
@@ -7628,13 +7652,13 @@
         <v>562797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7686,13 @@
         <v>339034</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -7677,13 +7701,13 @@
         <v>339034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7735,13 @@
         <v>177837</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>279</v>
@@ -7726,13 +7750,13 @@
         <v>177837</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1B4380-061A-424C-A3F8-8ED7B63AA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B03B585-4CFA-42E3-B353-4B932C460087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72F0EF4C-13DB-4912-9BE0-78B4C9C9AD42}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD7D20FE-7823-4F6C-B496-04ADE362152B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="259">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -77,889 +77,745 @@
     <t>—%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
   </si>
   <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E42047B-BFA1-4D48-A34D-A06FF111BAFA}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD81B47-8463-42E7-8D07-48106F447849}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1502,10 +1358,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>13024</v>
+        <v>49724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1517,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>13024</v>
+        <v>49724</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1551,10 +1407,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I5" s="7">
-        <v>18528</v>
+        <v>84755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1566,10 +1422,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
-        <v>18528</v>
+        <v>84755</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1600,10 +1456,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I6" s="7">
-        <v>12863</v>
+        <v>53974</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -1615,10 +1471,10 @@
         <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>12863</v>
+        <v>53974</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>20</v>
@@ -1649,10 +1505,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>10936</v>
+        <v>54326</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1664,10 +1520,10 @@
         <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>10936</v>
+        <v>54326</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -1698,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7">
-        <v>55351</v>
+        <v>242779</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -1713,10 +1569,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="N8" s="7">
-        <v>55351</v>
+        <v>242779</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -1749,10 +1605,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>36701</v>
+        <v>81941</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>29</v>
@@ -1764,10 +1620,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="N9" s="7">
-        <v>36701</v>
+        <v>81941</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -1798,10 +1654,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="I10" s="7">
-        <v>66226</v>
+        <v>118490</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
@@ -1813,10 +1669,10 @@
         <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>66226</v>
+        <v>118490</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
@@ -1847,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>41111</v>
+        <v>79840</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -1862,10 +1718,10 @@
         <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>41111</v>
+        <v>79840</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -1896,10 +1752,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I12" s="7">
-        <v>43391</v>
+        <v>60199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1911,10 +1767,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N12" s="7">
-        <v>43391</v>
+        <v>60199</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1945,10 +1801,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="I13" s="7">
-        <v>187429</v>
+        <v>340470</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -1960,10 +1816,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="N13" s="7">
-        <v>187429</v>
+        <v>340470</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -1996,10 +1852,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>81941</v>
+        <v>73742</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>42</v>
@@ -2011,10 +1867,10 @@
         <v>44</v>
       </c>
       <c r="M14" s="7">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>81941</v>
+        <v>73742</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>42</v>
@@ -2045,10 +1901,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>118490</v>
+        <v>89624</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>45</v>
@@ -2060,10 +1916,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="N15" s="7">
-        <v>118490</v>
+        <v>89624</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>45</v>
@@ -2094,10 +1950,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>79840</v>
+        <v>67888</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>48</v>
@@ -2109,10 +1965,10 @@
         <v>50</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>79840</v>
+        <v>67888</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>48</v>
@@ -2143,10 +1999,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>60199</v>
+        <v>30807</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>51</v>
@@ -2158,10 +2014,10 @@
         <v>53</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>60199</v>
+        <v>30807</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>51</v>
@@ -2192,10 +2048,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="I18" s="7">
-        <v>340470</v>
+        <v>262062</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -2207,10 +2063,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="N18" s="7">
-        <v>340470</v>
+        <v>262062</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -2243,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7">
-        <v>73742</v>
+        <v>98740</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>55</v>
@@ -2258,10 +2114,10 @@
         <v>57</v>
       </c>
       <c r="M19" s="7">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="N19" s="7">
-        <v>73742</v>
+        <v>98740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>55</v>
@@ -2292,10 +2148,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="I20" s="7">
-        <v>89624</v>
+        <v>155453</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>58</v>
@@ -2307,10 +2163,10 @@
         <v>60</v>
       </c>
       <c r="M20" s="7">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="N20" s="7">
-        <v>89624</v>
+        <v>155453</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>58</v>
@@ -2341,10 +2197,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I21" s="7">
-        <v>67888</v>
+        <v>93585</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -2356,10 +2212,10 @@
         <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N21" s="7">
-        <v>67888</v>
+        <v>93585</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -2390,10 +2246,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>30807</v>
+        <v>74404</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2405,10 +2261,10 @@
         <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N22" s="7">
-        <v>30807</v>
+        <v>74404</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>64</v>
@@ -2439,10 +2295,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="I23" s="7">
-        <v>262062</v>
+        <v>422182</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -2454,10 +2310,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="N23" s="7">
-        <v>262062</v>
+        <v>422182</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -2471,7 +2327,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2490,34 +2346,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="I24" s="7">
-        <v>98740</v>
+        <v>304148</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="M24" s="7">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="N24" s="7">
-        <v>98740</v>
+        <v>304148</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,34 +2395,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="I25" s="7">
-        <v>155453</v>
+        <v>448321</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M25" s="7">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="N25" s="7">
-        <v>155453</v>
+        <v>448321</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,34 +2444,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="I26" s="7">
-        <v>93585</v>
+        <v>295289</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M26" s="7">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="N26" s="7">
-        <v>93585</v>
+        <v>295289</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,34 +2493,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="I27" s="7">
-        <v>74404</v>
+        <v>219736</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="M27" s="7">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="N27" s="7">
-        <v>74404</v>
+        <v>219736</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,10 +2542,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>408</v>
+        <v>1246</v>
       </c>
       <c r="I28" s="7">
-        <v>422182</v>
+        <v>1267494</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -2701,10 +2557,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>408</v>
+        <v>1246</v>
       </c>
       <c r="N28" s="7">
-        <v>422182</v>
+        <v>1267494</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -2717,263 +2573,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>294</v>
-      </c>
-      <c r="I29" s="7">
-        <v>304148</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="7">
-        <v>294</v>
-      </c>
-      <c r="N29" s="7">
-        <v>304148</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>442</v>
-      </c>
-      <c r="I30" s="7">
-        <v>448321</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="7">
-        <v>442</v>
-      </c>
-      <c r="N30" s="7">
-        <v>448321</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>295</v>
-      </c>
-      <c r="I31" s="7">
-        <v>295289</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="7">
-        <v>295</v>
-      </c>
-      <c r="N31" s="7">
-        <v>295289</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>215</v>
-      </c>
-      <c r="I32" s="7">
-        <v>219736</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="7">
-        <v>215</v>
-      </c>
-      <c r="N32" s="7">
-        <v>219736</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1246</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1267494</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1246</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1267494</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2986,8 +2594,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD2807-BE71-40B4-8620-43799D49970A}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2A2DD2-ABB2-4E26-8455-7BAAC5CAF9DD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3003,7 +2611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3117,34 +2725,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>12793</v>
+        <v>71720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>12793</v>
+        <v>71720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,34 +2774,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I5" s="7">
-        <v>23177</v>
+        <v>110476</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="N5" s="7">
-        <v>23177</v>
+        <v>110476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,34 +2823,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I6" s="7">
-        <v>22524</v>
+        <v>96263</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M6" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="N6" s="7">
-        <v>22524</v>
+        <v>96263</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,34 +2872,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>7473</v>
+        <v>49781</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>7473</v>
+        <v>49781</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="I8" s="7">
-        <v>65967</v>
+        <v>328239</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -3328,10 +2936,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="N8" s="7">
-        <v>65967</v>
+        <v>328239</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -3364,34 +2972,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>58926</v>
+        <v>74033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>58926</v>
+        <v>74033</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,34 +3021,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>87299</v>
+        <v>195465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="N10" s="7">
-        <v>87299</v>
+        <v>195465</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,34 +3070,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="I11" s="7">
-        <v>73739</v>
+        <v>124150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>73739</v>
+        <v>124150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,34 +3119,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>42308</v>
+        <v>69217</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N12" s="7">
-        <v>42308</v>
+        <v>69217</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="I13" s="7">
-        <v>262272</v>
+        <v>462865</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -3575,10 +3183,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="N13" s="7">
-        <v>262272</v>
+        <v>462865</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -3611,34 +3219,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>74033</v>
+        <v>66476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>74033</v>
+        <v>66476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,34 +3268,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="I15" s="7">
-        <v>195465</v>
+        <v>146428</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="N15" s="7">
-        <v>195465</v>
+        <v>146428</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,34 +3317,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7">
+        <v>98105</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="7">
-        <v>124150</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="M16" s="7">
+        <v>89</v>
+      </c>
+      <c r="N16" s="7">
+        <v>98105</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="N16" s="7">
-        <v>124150</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,34 +3366,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>69217</v>
+        <v>58656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>69217</v>
+        <v>58656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,10 +3415,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="I18" s="7">
-        <v>462864</v>
+        <v>369665</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -3822,10 +3430,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="N18" s="7">
-        <v>462864</v>
+        <v>369665</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -3858,34 +3466,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="I19" s="7">
-        <v>66476</v>
+        <v>129844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="N19" s="7">
-        <v>66476</v>
+        <v>129844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,34 +3515,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>146428</v>
+        <v>184785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="N20" s="7">
-        <v>146428</v>
+        <v>184785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,34 +3564,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="I21" s="7">
-        <v>98105</v>
+        <v>124933</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="N21" s="7">
-        <v>98105</v>
+        <v>124933</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,34 +3613,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>58656</v>
+        <v>63790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>58656</v>
+        <v>63790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,10 +3662,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>327</v>
+        <v>472</v>
       </c>
       <c r="I23" s="7">
-        <v>369665</v>
+        <v>503352</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -4069,10 +3677,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>327</v>
+        <v>472</v>
       </c>
       <c r="N23" s="7">
-        <v>369665</v>
+        <v>503352</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -4086,7 +3694,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4105,34 +3713,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="I24" s="7">
-        <v>129844</v>
+        <v>342072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="N24" s="7">
-        <v>129844</v>
+        <v>342072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +3762,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="I25" s="7">
-        <v>184785</v>
+        <v>637154</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="N25" s="7">
-        <v>184785</v>
+        <v>637154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,34 +3811,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>117</v>
+        <v>408</v>
       </c>
       <c r="I26" s="7">
-        <v>124933</v>
+        <v>443451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>117</v>
+        <v>408</v>
       </c>
       <c r="N26" s="7">
-        <v>124933</v>
+        <v>443451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,34 +3860,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="I27" s="7">
-        <v>63790</v>
+        <v>241443</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="N27" s="7">
-        <v>63790</v>
+        <v>241443</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,10 +3909,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>472</v>
+        <v>1520</v>
       </c>
       <c r="I28" s="7">
-        <v>503352</v>
+        <v>1664120</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -4316,10 +3924,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>472</v>
+        <v>1520</v>
       </c>
       <c r="N28" s="7">
-        <v>503352</v>
+        <v>1664120</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -4332,263 +3940,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>312</v>
-      </c>
-      <c r="I29" s="7">
-        <v>342072</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="7">
-        <v>312</v>
-      </c>
-      <c r="N29" s="7">
-        <v>342072</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>583</v>
-      </c>
-      <c r="I30" s="7">
-        <v>637154</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M30" s="7">
-        <v>583</v>
-      </c>
-      <c r="N30" s="7">
-        <v>637154</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>408</v>
-      </c>
-      <c r="I31" s="7">
-        <v>443451</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M31" s="7">
-        <v>408</v>
-      </c>
-      <c r="N31" s="7">
-        <v>443451</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>217</v>
-      </c>
-      <c r="I32" s="7">
-        <v>241443</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M32" s="7">
-        <v>217</v>
-      </c>
-      <c r="N32" s="7">
-        <v>241443</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1520</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1664120</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1520</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1664120</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4601,8 +3961,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8CC6DB-093B-4B59-BF68-6D7A8260AAFF}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03310F12-C0AF-4A06-BB03-6CBB1208CB9B}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4618,7 +3978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4732,34 +4092,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="I4" s="7">
-        <v>11566</v>
+        <v>100929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="N4" s="7">
-        <v>11566</v>
+        <v>100929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,34 +4141,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>17141</v>
+        <v>121281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N5" s="7">
-        <v>17141</v>
+        <v>121281</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,34 +4190,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7">
-        <v>13889</v>
+        <v>67393</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N6" s="7">
-        <v>13889</v>
+        <v>67393</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,34 +4239,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>14782</v>
+        <v>44613</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>14782</v>
+        <v>44613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,10 +4288,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>57377</v>
+        <v>334216</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -4943,10 +4303,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="N8" s="7">
-        <v>57377</v>
+        <v>334216</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -4979,34 +4339,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>89363</v>
+        <v>118721</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>89363</v>
+        <v>118721</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,34 +4388,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="I10" s="7">
-        <v>104140</v>
+        <v>228552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N10" s="7">
-        <v>104140</v>
+        <v>228552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,34 +4437,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="I11" s="7">
-        <v>53504</v>
+        <v>142468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7">
-        <v>53504</v>
+        <v>142468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,34 +4486,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>29830</v>
+        <v>53812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>29830</v>
+        <v>53812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,10 +4535,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>263</v>
+        <v>493</v>
       </c>
       <c r="I13" s="7">
-        <v>276838</v>
+        <v>543552</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -5190,10 +4550,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>263</v>
+        <v>493</v>
       </c>
       <c r="N13" s="7">
-        <v>276838</v>
+        <v>543552</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -5226,34 +4586,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>118721</v>
+        <v>71024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>118721</v>
+        <v>71024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,34 +4635,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>228552</v>
+        <v>157330</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="M15" s="7">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="N15" s="7">
-        <v>228552</v>
+        <v>157330</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,34 +4684,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>142468</v>
+        <v>74603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>142468</v>
+        <v>74603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,34 +4733,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>53812</v>
+        <v>39134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>53812</v>
+        <v>39134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,10 +4782,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>493</v>
+        <v>309</v>
       </c>
       <c r="I18" s="7">
-        <v>543552</v>
+        <v>342091</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -5437,10 +4797,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>493</v>
+        <v>309</v>
       </c>
       <c r="N18" s="7">
-        <v>543552</v>
+        <v>342091</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -5473,34 +4833,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>71024</v>
+        <v>138316</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>71024</v>
+        <v>138316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,34 +4882,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="I20" s="7">
-        <v>157330</v>
+        <v>198865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="N20" s="7">
-        <v>157330</v>
+        <v>198865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,34 +4931,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="I21" s="7">
-        <v>74603</v>
+        <v>127836</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="M21" s="7">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="N21" s="7">
-        <v>74603</v>
+        <v>127836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,34 +4980,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I22" s="7">
-        <v>39134</v>
+        <v>71351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7">
-        <v>39134</v>
+        <v>71351</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,10 +5029,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>309</v>
+        <v>473</v>
       </c>
       <c r="I23" s="7">
-        <v>342091</v>
+        <v>536368</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5684,10 +5044,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>309</v>
+        <v>473</v>
       </c>
       <c r="N23" s="7">
-        <v>342091</v>
+        <v>536368</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -5701,7 +5061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5720,34 +5080,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>120</v>
+        <v>376</v>
       </c>
       <c r="I24" s="7">
-        <v>138316</v>
+        <v>428991</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
-        <v>120</v>
+        <v>376</v>
       </c>
       <c r="N24" s="7">
-        <v>138316</v>
+        <v>428991</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,34 +5129,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>179</v>
+        <v>647</v>
       </c>
       <c r="I25" s="7">
-        <v>198865</v>
+        <v>706027</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
-        <v>179</v>
+        <v>647</v>
       </c>
       <c r="N25" s="7">
-        <v>198865</v>
+        <v>706027</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,34 +5178,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="I26" s="7">
-        <v>127836</v>
+        <v>412300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="N26" s="7">
-        <v>127836</v>
+        <v>412300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,34 +5227,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="I27" s="7">
-        <v>71351</v>
+        <v>208909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="N27" s="7">
-        <v>71351</v>
+        <v>208909</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,10 +5276,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>473</v>
+        <v>1594</v>
       </c>
       <c r="I28" s="7">
-        <v>536368</v>
+        <v>1756227</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -5931,10 +5291,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>473</v>
+        <v>1594</v>
       </c>
       <c r="N28" s="7">
-        <v>536368</v>
+        <v>1756227</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -5947,263 +5307,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>376</v>
-      </c>
-      <c r="I29" s="7">
-        <v>428991</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M29" s="7">
-        <v>376</v>
-      </c>
-      <c r="N29" s="7">
-        <v>428991</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>647</v>
-      </c>
-      <c r="I30" s="7">
-        <v>706027</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M30" s="7">
-        <v>647</v>
-      </c>
-      <c r="N30" s="7">
-        <v>706027</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>380</v>
-      </c>
-      <c r="I31" s="7">
-        <v>412300</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" s="7">
-        <v>380</v>
-      </c>
-      <c r="N31" s="7">
-        <v>412300</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>191</v>
-      </c>
-      <c r="I32" s="7">
-        <v>208909</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M32" s="7">
-        <v>191</v>
-      </c>
-      <c r="N32" s="7">
-        <v>208909</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1594</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1756227</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1594</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1756227</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6216,8 +5328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0B16D-D13D-4967-8148-5F64EE085B04}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9AAB08-9809-4943-96BE-E702942D89DB}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6233,7 +5345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6347,34 +5459,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="I4" s="7">
-        <v>25202</v>
+        <v>100066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="N4" s="7">
-        <v>25202</v>
+        <v>100066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,34 +5508,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>13076</v>
+        <v>79916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>13076</v>
+        <v>79916</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,34 +5557,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I6" s="7">
-        <v>5815</v>
+        <v>64253</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="N6" s="7">
-        <v>5815</v>
+        <v>64253</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,34 +5606,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>4190</v>
+        <v>24285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>4190</v>
+        <v>24285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,10 +5655,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>107</v>
+        <v>583</v>
       </c>
       <c r="I8" s="7">
-        <v>48282</v>
+        <v>268520</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -6558,10 +5670,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>583</v>
       </c>
       <c r="N8" s="7">
-        <v>48282</v>
+        <v>268520</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -6594,34 +5706,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="I9" s="7">
-        <v>81063</v>
+        <v>112238</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="N9" s="7">
-        <v>81063</v>
+        <v>112238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,34 +5755,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="I10" s="7">
-        <v>72153</v>
+        <v>121511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="N10" s="7">
-        <v>72153</v>
+        <v>121511</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,34 +5804,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="I11" s="7">
-        <v>62917</v>
+        <v>82975</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="N11" s="7">
-        <v>62917</v>
+        <v>82975</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,34 +5853,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I12" s="7">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="N12" s="7">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,10 +5902,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>476</v>
+        <v>676</v>
       </c>
       <c r="I13" s="7">
-        <v>237327</v>
+        <v>361720</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -6805,10 +5917,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="7">
-        <v>476</v>
+        <v>676</v>
       </c>
       <c r="N13" s="7">
-        <v>237327</v>
+        <v>361720</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -6841,34 +5953,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="I14" s="7">
-        <v>121476</v>
+        <v>115099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>121476</v>
+        <v>115099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,34 +6002,34 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="I15" s="7">
-        <v>133011</v>
+        <v>295249</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="N15" s="7">
-        <v>133011</v>
+        <v>295249</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,34 +6051,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>92041</v>
+        <v>61582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>92041</v>
+        <v>61582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,34 +6100,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>48293</v>
+        <v>33074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N17" s="7">
-        <v>48293</v>
+        <v>33074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,10 +6149,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>676</v>
+        <v>437</v>
       </c>
       <c r="I18" s="7">
-        <v>394820</v>
+        <v>505005</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -7052,10 +6164,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="7">
-        <v>676</v>
+        <v>437</v>
       </c>
       <c r="N18" s="7">
-        <v>394820</v>
+        <v>505005</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -7088,34 +6200,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="I19" s="7">
-        <v>99520</v>
+        <v>154285</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="N19" s="7">
-        <v>99520</v>
+        <v>154285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,34 +6249,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="I20" s="7">
-        <v>208244</v>
+        <v>123888</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="N20" s="7">
-        <v>208244</v>
+        <v>123888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,34 +6298,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>67094</v>
+        <v>100889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="M21" s="7">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="N21" s="7">
-        <v>67094</v>
+        <v>100889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,34 +6347,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I22" s="7">
-        <v>35333</v>
+        <v>64141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>35333</v>
+        <v>64141</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,10 +6396,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>437</v>
+        <v>763</v>
       </c>
       <c r="I23" s="7">
-        <v>410191</v>
+        <v>443204</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -7299,10 +6411,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>437</v>
+        <v>763</v>
       </c>
       <c r="N23" s="7">
-        <v>410191</v>
+        <v>443204</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -7316,7 +6428,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7335,34 +6447,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>278</v>
+        <v>867</v>
       </c>
       <c r="I24" s="7">
-        <v>171052</v>
+        <v>481689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
-        <v>278</v>
+        <v>867</v>
       </c>
       <c r="N24" s="7">
-        <v>171052</v>
+        <v>481689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,34 +6496,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>210</v>
+        <v>765</v>
       </c>
       <c r="I25" s="7">
-        <v>136314</v>
+        <v>620565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
-        <v>210</v>
+        <v>765</v>
       </c>
       <c r="N25" s="7">
-        <v>136314</v>
+        <v>620565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,34 +6545,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>168</v>
+        <v>548</v>
       </c>
       <c r="I26" s="7">
-        <v>111168</v>
+        <v>309699</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
-        <v>168</v>
+        <v>548</v>
       </c>
       <c r="N26" s="7">
-        <v>111168</v>
+        <v>309699</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,34 +6594,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="I27" s="7">
-        <v>68828</v>
+        <v>166496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="M27" s="7">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="N27" s="7">
-        <v>68828</v>
+        <v>166496</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,10 +6643,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>763</v>
+        <v>2459</v>
       </c>
       <c r="I28" s="7">
-        <v>487362</v>
+        <v>1578449</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -7546,10 +6658,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7">
-        <v>763</v>
+        <v>2459</v>
       </c>
       <c r="N28" s="7">
-        <v>487362</v>
+        <v>1578449</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -7562,263 +6674,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>867</v>
-      </c>
-      <c r="I29" s="7">
-        <v>498313</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M29" s="7">
-        <v>867</v>
-      </c>
-      <c r="N29" s="7">
-        <v>498313</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>765</v>
-      </c>
-      <c r="I30" s="7">
-        <v>562797</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M30" s="7">
-        <v>765</v>
-      </c>
-      <c r="N30" s="7">
-        <v>562797</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>548</v>
-      </c>
-      <c r="I31" s="7">
-        <v>339034</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M31" s="7">
-        <v>548</v>
-      </c>
-      <c r="N31" s="7">
-        <v>339034</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>279</v>
-      </c>
-      <c r="I32" s="7">
-        <v>177837</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M32" s="7">
-        <v>279</v>
-      </c>
-      <c r="N32" s="7">
-        <v>177837</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2459</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1577981</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2459</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1577981</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
